--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H2">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I2">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J2">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N2">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q2">
-        <v>106.1557581239098</v>
+        <v>80.177805235675</v>
       </c>
       <c r="R2">
-        <v>955.4018231151879</v>
+        <v>721.6002471210751</v>
       </c>
       <c r="S2">
-        <v>0.1999282354935506</v>
+        <v>0.1132202643857267</v>
       </c>
       <c r="T2">
-        <v>0.1999282354935506</v>
+        <v>0.1132202643857267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H3">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I3">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J3">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P3">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q3">
-        <v>184.8300411173348</v>
+        <v>236.451312264895</v>
       </c>
       <c r="R3">
-        <v>1663.470370056014</v>
+        <v>2128.061810384055</v>
       </c>
       <c r="S3">
-        <v>0.3480992895708612</v>
+        <v>0.3338963945233023</v>
       </c>
       <c r="T3">
-        <v>0.3480992895708612</v>
+        <v>0.3338963945233022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H4">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I4">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J4">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N4">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q4">
-        <v>42.58483661452043</v>
+        <v>185.01540587418</v>
       </c>
       <c r="R4">
-        <v>383.2635295306839</v>
+        <v>1665.13865286762</v>
       </c>
       <c r="S4">
-        <v>0.08020206716610133</v>
+        <v>0.2612629905113271</v>
       </c>
       <c r="T4">
-        <v>0.08020206716610133</v>
+        <v>0.2612629905113271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H5">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I5">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J5">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N5">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q5">
-        <v>58.97718697681555</v>
+        <v>63.67308802966999</v>
       </c>
       <c r="R5">
-        <v>530.7946827913399</v>
+        <v>573.05779226703</v>
       </c>
       <c r="S5">
-        <v>0.1110745675508692</v>
+        <v>0.089913709159093</v>
       </c>
       <c r="T5">
-        <v>0.1110745675508692</v>
+        <v>0.089913709159093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H6">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I6">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J6">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N6">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q6">
-        <v>76.01807169418821</v>
+        <v>73.32881374199499</v>
       </c>
       <c r="R6">
-        <v>684.1626452476939</v>
+        <v>659.959323677955</v>
       </c>
       <c r="S6">
-        <v>0.1431684838207392</v>
+        <v>0.1035487022194801</v>
       </c>
       <c r="T6">
-        <v>0.1431684838207392</v>
+        <v>0.1035487022194801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J7">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N7">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q7">
-        <v>11.843350879932</v>
+        <v>6.992235311490001</v>
       </c>
       <c r="R7">
-        <v>106.590157919388</v>
+        <v>62.93011780341001</v>
       </c>
       <c r="S7">
-        <v>0.02230515127584478</v>
+        <v>0.009873838879563925</v>
       </c>
       <c r="T7">
-        <v>0.02230515127584477</v>
+        <v>0.009873838879563923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>7.899606</v>
       </c>
       <c r="I8">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J8">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P8">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q8">
         <v>20.620709312346</v>
@@ -948,10 +948,10 @@
         <v>185.586383811114</v>
       </c>
       <c r="S8">
-        <v>0.03883597178619937</v>
+        <v>0.02911880854436531</v>
       </c>
       <c r="T8">
-        <v>0.03883597178619937</v>
+        <v>0.0291188085443653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>7.899606</v>
       </c>
       <c r="I9">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J9">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N9">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q9">
-        <v>4.751010883476</v>
+        <v>16.135029517464</v>
       </c>
       <c r="R9">
-        <v>42.759097951284</v>
+        <v>145.215265657176</v>
       </c>
       <c r="S9">
-        <v>0.008947806878599003</v>
+        <v>0.022784513774966</v>
       </c>
       <c r="T9">
-        <v>0.008947806878599</v>
+        <v>0.022784513774966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>7.899606</v>
       </c>
       <c r="I10">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J10">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N10">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q10">
-        <v>6.579836380260001</v>
+        <v>5.552873556515999</v>
       </c>
       <c r="R10">
-        <v>59.21852742234</v>
+        <v>49.975862008644</v>
       </c>
       <c r="S10">
-        <v>0.01239212173310607</v>
+        <v>0.007841294861105947</v>
       </c>
       <c r="T10">
-        <v>0.01239212173310606</v>
+        <v>0.007841294861105946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>7.899606</v>
       </c>
       <c r="I11">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J11">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N11">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q11">
-        <v>8.481016123866</v>
+        <v>6.394940835426</v>
       </c>
       <c r="R11">
-        <v>76.329145114794</v>
+        <v>57.554467518834</v>
       </c>
       <c r="S11">
-        <v>0.01597270481416286</v>
+        <v>0.009030390517547521</v>
       </c>
       <c r="T11">
-        <v>0.01597270481416286</v>
+        <v>0.00903039051754752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H12">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I12">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J12">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N12">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O12">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P12">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q12">
-        <v>2.294430850943778</v>
+        <v>1.455046984945556</v>
       </c>
       <c r="R12">
-        <v>20.649877658494</v>
+        <v>13.09542286451</v>
       </c>
       <c r="S12">
-        <v>0.004321211770309388</v>
+        <v>0.002054693363642849</v>
       </c>
       <c r="T12">
-        <v>0.004321211770309388</v>
+        <v>0.002054693363642849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H13">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I13">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J13">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.493119</v>
       </c>
       <c r="O13">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P13">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q13">
-        <v>3.994882199661889</v>
+        <v>4.291059950894889</v>
       </c>
       <c r="R13">
-        <v>35.953939796957</v>
+        <v>38.619539558054</v>
       </c>
       <c r="S13">
-        <v>0.00752375342890707</v>
+        <v>0.006059469209805098</v>
       </c>
       <c r="T13">
-        <v>0.007523753428907069</v>
+        <v>0.006059469209805097</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H14">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I14">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J14">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N14">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O14">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P14">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q14">
-        <v>0.9204207537824444</v>
+        <v>3.357613839570667</v>
       </c>
       <c r="R14">
-        <v>8.283786784041999</v>
+        <v>30.218524556136</v>
       </c>
       <c r="S14">
-        <v>0.001733472592231631</v>
+        <v>0.004741336152866137</v>
       </c>
       <c r="T14">
-        <v>0.001733472592231631</v>
+        <v>0.004741336152866137</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H15">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I15">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J15">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N15">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O15">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P15">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q15">
-        <v>1.274721971685556</v>
+        <v>1.155523457987111</v>
       </c>
       <c r="R15">
-        <v>11.47249774517</v>
+        <v>10.399711121884</v>
       </c>
       <c r="S15">
-        <v>0.00240074508484483</v>
+        <v>0.001631731762083677</v>
       </c>
       <c r="T15">
-        <v>0.002400745084844829</v>
+        <v>0.001631731762083677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.643866</v>
+      </c>
+      <c r="I16">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J16">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.428579666666666</v>
+      </c>
+      <c r="N16">
+        <v>7.285739</v>
+      </c>
+      <c r="O16">
+        <v>0.1148191093768101</v>
+      </c>
+      <c r="P16">
+        <v>0.1148191093768101</v>
+      </c>
+      <c r="Q16">
+        <v>1.330753180774889</v>
+      </c>
+      <c r="R16">
+        <v>11.976778626974</v>
+      </c>
+      <c r="S16">
+        <v>0.001879176244804965</v>
+      </c>
+      <c r="T16">
+        <v>0.001879176244804965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.315656</v>
+      </c>
+      <c r="I17">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J17">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.655411666666667</v>
+      </c>
+      <c r="N17">
+        <v>7.966235</v>
+      </c>
+      <c r="O17">
+        <v>0.1255433399118981</v>
+      </c>
+      <c r="P17">
+        <v>0.1255433399118982</v>
+      </c>
+      <c r="Q17">
+        <v>0.2793988750177778</v>
+      </c>
+      <c r="R17">
+        <v>2.51458987516</v>
+      </c>
+      <c r="S17">
+        <v>0.0003945432829646985</v>
+      </c>
+      <c r="T17">
+        <v>0.0003945432829646985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.315656</v>
+      </c>
+      <c r="I18">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J18">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.831039666666666</v>
+      </c>
+      <c r="N18">
+        <v>23.493119</v>
+      </c>
+      <c r="O18">
+        <v>0.3702382146908386</v>
+      </c>
+      <c r="P18">
+        <v>0.3702382146908386</v>
+      </c>
+      <c r="Q18">
+        <v>0.8239715523404444</v>
+      </c>
+      <c r="R18">
+        <v>7.415743971064</v>
+      </c>
+      <c r="S18">
+        <v>0.001163542413365955</v>
+      </c>
+      <c r="T18">
+        <v>0.001163542413365954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.5101343333333334</v>
-      </c>
-      <c r="H16">
-        <v>1.530403</v>
-      </c>
-      <c r="I16">
-        <v>0.01907359990996641</v>
-      </c>
-      <c r="J16">
-        <v>0.0190735999099664</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.220799666666667</v>
-      </c>
-      <c r="N16">
-        <v>9.662399000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.1622356056685755</v>
-      </c>
-      <c r="P16">
-        <v>0.1622356056685755</v>
-      </c>
-      <c r="Q16">
-        <v>1.643040490755222</v>
-      </c>
-      <c r="R16">
-        <v>14.787364416797</v>
-      </c>
-      <c r="S16">
-        <v>0.003094417033673488</v>
-      </c>
-      <c r="T16">
-        <v>0.003094417033673487</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.315656</v>
+      </c>
+      <c r="I19">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J19">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.127532</v>
+      </c>
+      <c r="N19">
+        <v>18.382596</v>
+      </c>
+      <c r="O19">
+        <v>0.2896992742608144</v>
+      </c>
+      <c r="P19">
+        <v>0.2896992742608145</v>
+      </c>
+      <c r="Q19">
+        <v>0.6447307469973333</v>
+      </c>
+      <c r="R19">
+        <v>5.802576722976</v>
+      </c>
+      <c r="S19">
+        <v>0.0009104338216552404</v>
+      </c>
+      <c r="T19">
+        <v>0.0009104338216552404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.315656</v>
+      </c>
+      <c r="I20">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J20">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.108791333333333</v>
+      </c>
+      <c r="N20">
+        <v>6.326373999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.09970006175963861</v>
+      </c>
+      <c r="P20">
+        <v>0.09970006175963862</v>
+      </c>
+      <c r="Q20">
+        <v>0.2218842123715555</v>
+      </c>
+      <c r="R20">
+        <v>1.996957911344</v>
+      </c>
+      <c r="S20">
+        <v>0.000313325977355992</v>
+      </c>
+      <c r="T20">
+        <v>0.000313325977355992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.315656</v>
+      </c>
+      <c r="I21">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J21">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.428579666666666</v>
+      </c>
+      <c r="N21">
+        <v>7.285739</v>
+      </c>
+      <c r="O21">
+        <v>0.1148191093768101</v>
+      </c>
+      <c r="P21">
+        <v>0.1148191093768101</v>
+      </c>
+      <c r="Q21">
+        <v>0.2555319144204444</v>
+      </c>
+      <c r="R21">
+        <v>2.299787229784</v>
+      </c>
+      <c r="S21">
+        <v>0.0003608403949775445</v>
+      </c>
+      <c r="T21">
+        <v>0.0003608403949775445</v>
       </c>
     </row>
   </sheetData>
